--- a/biology/Zoologie/Georges_Demoulin/Georges_Demoulin.xlsx
+++ b/biology/Zoologie/Georges_Demoulin/Georges_Demoulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Demoulin (11 mars 1919 - 27 juillet 1994) est un entomologiste belge, spécialisé dans les éphémères. 
 </t>
@@ -511,9 +523,11 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une courte nécrologie a été publiée par Jacques Rigout[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une courte nécrologie a été publiée par Jacques Rigout.
 Né à Amay, il est attiré par les formes et les couleurs des insectes, il abandonne ses études de pharmacie pour se faire engager à l'âge de 28 ans comme naturaliste stagiaire au Musée royal des sciences naturelles de Belgique.
 Après un séjour d'un an en Afrique au Parc national de la Garamba, il rentre au musée où il est chargé des collections d'insectes aux mœurs aquatiques.
 </t>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses publications sont nombreuses, parmi celles-ci on peut noter. 
 1952. Contribution à l'étude des Ephoronidae Euthyplociinae, 1952, Bulletin de l'Institut royal des Sciences naturelles de Belgique, 28 (45), p. 1-22.
@@ -578,7 +594,9 @@
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Demoulinia Gilles, 1990
 Abacetus demoulini Straeno, 1963
